--- a/media/excel_template/Siswa.xlsx
+++ b/media/excel_template/Siswa.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -235,8 +235,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,9 +302,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>37989</v>
-      </c>
+      <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
